--- a/萬芳/萬芳加保250508.xlsx
+++ b/萬芳/萬芳加保250508.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\make_ex\萬芳\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\meiko_insurance\萬芳\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB6B780-9FB5-4A4D-BD04-763F9864D339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4701061F-4147-4268-857B-7D136542C34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11580" xr2:uid="{F285C0D2-A9AB-4844-A452-008F9E1516AE}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11580" xr2:uid="{F285C0D2-A9AB-4844-A452-008F9E1516AE}"/>
   </bookViews>
   <sheets>
     <sheet name="加保" sheetId="1" r:id="rId1"/>
@@ -590,7 +590,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
   <si>
     <r>
       <t>勞退提繳日期</t>
@@ -756,6 +756,207 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>鄒昀甫</t>
+  </si>
+  <si>
+    <t>O100545599</t>
+  </si>
+  <si>
+    <t>0880305</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>周浥愷</t>
+  </si>
+  <si>
+    <t>F130585450</t>
+  </si>
+  <si>
+    <t>0951029</t>
+  </si>
+  <si>
+    <t>謝孟呈</t>
+  </si>
+  <si>
+    <t>A131065612</t>
+  </si>
+  <si>
+    <t>0920113</t>
+  </si>
+  <si>
+    <t>張予蓉</t>
+  </si>
+  <si>
+    <t>B223368312</t>
+  </si>
+  <si>
+    <t>0910528</t>
+  </si>
+  <si>
+    <t>范明祺</t>
+  </si>
+  <si>
+    <t>A131061936</t>
+  </si>
+  <si>
+    <t>0910820</t>
+  </si>
+  <si>
+    <t>林思妤</t>
+  </si>
+  <si>
+    <t>C221654478</t>
+  </si>
+  <si>
+    <t>0920304</t>
+  </si>
+  <si>
+    <t>薛稚菱</t>
+  </si>
+  <si>
+    <t>F231144651</t>
+  </si>
+  <si>
+    <t>0921024</t>
+  </si>
+  <si>
+    <t>李庭瑄</t>
+  </si>
+  <si>
+    <t>F230467959</t>
+  </si>
+  <si>
+    <t>0910128</t>
+  </si>
+  <si>
+    <t>吳妤恩</t>
+  </si>
+  <si>
+    <t>B223687143</t>
+  </si>
+  <si>
+    <t>0940430</t>
+  </si>
+  <si>
+    <t>楊蔚蕎</t>
+  </si>
+  <si>
+    <t>E280002390</t>
+  </si>
+  <si>
+    <t>0920601</t>
+  </si>
+  <si>
+    <t>蔡佩燁</t>
+  </si>
+  <si>
+    <t>I200362055</t>
+  </si>
+  <si>
+    <t>0930922</t>
+  </si>
+  <si>
+    <t>吳宥辰</t>
+  </si>
+  <si>
+    <t>N126651992</t>
+  </si>
+  <si>
+    <t>0920207</t>
+  </si>
+  <si>
+    <t>方喻萱</t>
+  </si>
+  <si>
+    <t>A230305708</t>
+  </si>
+  <si>
+    <t>0940422</t>
+  </si>
+  <si>
+    <t>黃舒愉</t>
+  </si>
+  <si>
+    <t>O200695872</t>
+  </si>
+  <si>
+    <t>0950509</t>
+  </si>
+  <si>
+    <t>范文晏</t>
+  </si>
+  <si>
+    <t>J223108840</t>
+  </si>
+  <si>
+    <t>0930318</t>
+  </si>
+  <si>
+    <t>江武雄</t>
+  </si>
+  <si>
+    <t>T126035340</t>
+  </si>
+  <si>
+    <t>0930224</t>
+  </si>
+  <si>
+    <t>陳黃博祥</t>
+  </si>
+  <si>
+    <t>U122044022</t>
+  </si>
+  <si>
+    <t>0930405</t>
+  </si>
+  <si>
+    <t>黃佳彬</t>
+  </si>
+  <si>
+    <t>C121655768</t>
+  </si>
+  <si>
+    <t>0910422</t>
+  </si>
+  <si>
+    <t>許沛妤</t>
+  </si>
+  <si>
+    <t>A230701979</t>
+  </si>
+  <si>
+    <t>0930911</t>
+  </si>
+  <si>
+    <t>陳歆祐</t>
+  </si>
+  <si>
+    <t>A130626433</t>
+  </si>
+  <si>
+    <t>0950716</t>
+  </si>
+  <si>
+    <t>胡庭熙</t>
+  </si>
+  <si>
+    <t>A230696231</t>
+  </si>
+  <si>
+    <t>0930223</t>
+  </si>
+  <si>
+    <t>王家瑜</t>
+  </si>
+  <si>
+    <t>T225821979</t>
+  </si>
+  <si>
+    <t>0930125</t>
+  </si>
+  <si>
     <t>鄭宸翔</t>
   </si>
   <si>
@@ -765,25 +966,40 @@
     <t>0960520</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>黃佳彬</t>
-  </si>
-  <si>
-    <t>C121655768</t>
-  </si>
-  <si>
-    <t>0910422</t>
-  </si>
-  <si>
-    <t>蔡佩燁</t>
-  </si>
-  <si>
-    <t>I200362055</t>
-  </si>
-  <si>
-    <t>0930922</t>
+    <t>陳潔瑩</t>
+  </si>
+  <si>
+    <t>A224365261</t>
+  </si>
+  <si>
+    <t>0650327</t>
+  </si>
+  <si>
+    <t>郭品駿</t>
+  </si>
+  <si>
+    <t>T125873793</t>
+  </si>
+  <si>
+    <t>0911023</t>
+  </si>
+  <si>
+    <t>王若芸</t>
+  </si>
+  <si>
+    <t>L225871516</t>
+  </si>
+  <si>
+    <t>0930611</t>
+  </si>
+  <si>
+    <t>柯睿諭</t>
+  </si>
+  <si>
+    <t>R125151683</t>
+  </si>
+  <si>
+    <t>0920921</t>
   </si>
 </sst>
 </file>
@@ -2172,435 +2388,963 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>6</v>
+      </c>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2">
+        <v>6000</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>6</v>
+      </c>
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="F7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>6</v>
+      </c>
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>6</v>
+      </c>
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>6</v>
+      </c>
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>6</v>
+      </c>
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="F11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>6</v>
+      </c>
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="2">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="F12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>6</v>
+      </c>
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="F13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>6</v>
+      </c>
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="2">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="F14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>6</v>
+      </c>
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="F15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>6</v>
+      </c>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="F16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2">
+        <v>6</v>
+      </c>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="F17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>6</v>
+      </c>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="2">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="F18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2">
+        <v>6</v>
+      </c>
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="F19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2">
+        <v>6</v>
+      </c>
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="F20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
+        <v>6</v>
+      </c>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="F21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2">
+        <v>6</v>
+      </c>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="2">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="F22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="N22" s="2">
+        <v>1</v>
+      </c>
+      <c r="O22" s="2">
+        <v>6</v>
+      </c>
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="F23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+      <c r="O23" s="2">
+        <v>6</v>
+      </c>
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="2">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="F24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="N24" s="2">
+        <v>1</v>
+      </c>
+      <c r="O24" s="2">
+        <v>6</v>
+      </c>
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="2">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="F25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+      <c r="O25" s="2">
+        <v>6</v>
+      </c>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="F26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+      <c r="O26" s="2">
+        <v>6</v>
+      </c>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="2">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="F27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I27" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+      <c r="O27" s="2">
+        <v>6</v>
+      </c>
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="2">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>15027516</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="F28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="2">
+        <v>5000</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+      <c r="O28" s="2">
+        <v>6</v>
+      </c>
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
